--- a/model-03/sorting_list/2021-10-04_delta_sabia_sorting_list_initial_position_k=0.xlsx
+++ b/model-03/sorting_list/2021-10-04_delta_sabia_sorting_list_initial_position_k=0.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana.vilela\Desktop\current-work\2021-10-04_replace_termination_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labimas\Desktop\id-sabia\model-03\sorting_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B560E93-EE59-4765-B318-4944318D86AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CID" sheetId="1" r:id="rId1"/>
     <sheet name="CIE" sheetId="2" r:id="rId2"/>
     <sheet name="CSE" sheetId="3" r:id="rId3"/>
     <sheet name="CSD" sheetId="4" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="452">
   <si>
     <t>Nome</t>
   </si>
@@ -1222,15 +1220,6 @@
     <t>TC0263</t>
   </si>
   <si>
-    <t>TB0093</t>
-  </si>
-  <si>
-    <t>TB0117</t>
-  </si>
-  <si>
-    <t>TB0070</t>
-  </si>
-  <si>
     <t>BC1085</t>
   </si>
   <si>
@@ -1400,304 +1389,14 @@
   </si>
   <si>
     <t>TB0074</t>
-  </si>
-  <si>
-    <t>TB0106</t>
-  </si>
-  <si>
-    <t>TB0016</t>
-  </si>
-  <si>
-    <t>TB0085</t>
-  </si>
-  <si>
-    <t>TB0060</t>
-  </si>
-  <si>
-    <t>TB0011</t>
-  </si>
-  <si>
-    <t>TB0100</t>
-  </si>
-  <si>
-    <t>TB0082</t>
-  </si>
-  <si>
-    <t>TB0049</t>
-  </si>
-  <si>
-    <t>TB0076</t>
-  </si>
-  <si>
-    <t>TB0014</t>
-  </si>
-  <si>
-    <t>TB0018</t>
-  </si>
-  <si>
-    <t>TB0075</t>
-  </si>
-  <si>
-    <t>TB0063</t>
-  </si>
-  <si>
-    <t>TB0048</t>
-  </si>
-  <si>
-    <t>TB0002</t>
-  </si>
-  <si>
-    <t>TB0072</t>
-  </si>
-  <si>
-    <t>TB0101</t>
-  </si>
-  <si>
-    <t>TB0095</t>
-  </si>
-  <si>
-    <t>TB0089</t>
-  </si>
-  <si>
-    <t>TB0073</t>
-  </si>
-  <si>
-    <t>TB0090</t>
-  </si>
-  <si>
-    <t>TB0023</t>
-  </si>
-  <si>
-    <t>TB0055</t>
-  </si>
-  <si>
-    <t>TB0102</t>
-  </si>
-  <si>
-    <t>TB0051</t>
-  </si>
-  <si>
-    <t>TB0057</t>
-  </si>
-  <si>
-    <t>TB0080</t>
-  </si>
-  <si>
-    <t>TB0078</t>
-  </si>
-  <si>
-    <t>TB0044</t>
-  </si>
-  <si>
-    <t>TB0105</t>
-  </si>
-  <si>
-    <t>TB0007</t>
-  </si>
-  <si>
-    <t>TB0111</t>
-  </si>
-  <si>
-    <t>TB0001</t>
-  </si>
-  <si>
-    <t>TB0092</t>
-  </si>
-  <si>
-    <t>TB0005</t>
-  </si>
-  <si>
-    <t>TB0058</t>
-  </si>
-  <si>
-    <t>TB0042</t>
-  </si>
-  <si>
-    <t>TB0103</t>
-  </si>
-  <si>
-    <t>TB0033</t>
-  </si>
-  <si>
-    <t>TB0097</t>
-  </si>
-  <si>
-    <t>TB0052</t>
-  </si>
-  <si>
-    <t>TB0053</t>
-  </si>
-  <si>
-    <t>TB0116</t>
-  </si>
-  <si>
-    <t>TB0094</t>
-  </si>
-  <si>
-    <t>TB0045</t>
-  </si>
-  <si>
-    <t>TB0008</t>
-  </si>
-  <si>
-    <t>TB0035</t>
-  </si>
-  <si>
-    <t>TB0086</t>
-  </si>
-  <si>
-    <t>TB0104</t>
-  </si>
-  <si>
-    <t>TB0030</t>
-  </si>
-  <si>
-    <t>TB0091</t>
-  </si>
-  <si>
-    <t>TB0031</t>
-  </si>
-  <si>
-    <t>TB0071</t>
-  </si>
-  <si>
-    <t>TB0069</t>
-  </si>
-  <si>
-    <t>TB0115</t>
-  </si>
-  <si>
-    <t>TB0037</t>
-  </si>
-  <si>
-    <t>TB0032</t>
-  </si>
-  <si>
-    <t>TB0088</t>
-  </si>
-  <si>
-    <t>TB0054</t>
-  </si>
-  <si>
-    <t>TB0017</t>
-  </si>
-  <si>
-    <t>TB0029</t>
-  </si>
-  <si>
-    <t>TB0107</t>
-  </si>
-  <si>
-    <t>TB0079</t>
-  </si>
-  <si>
-    <t>TB0040</t>
-  </si>
-  <si>
-    <t>TB0003</t>
-  </si>
-  <si>
-    <t>TB0028</t>
-  </si>
-  <si>
-    <t>TB0110</t>
-  </si>
-  <si>
-    <t>TB0036</t>
-  </si>
-  <si>
-    <t>TB0109</t>
-  </si>
-  <si>
-    <t>TB0022</t>
-  </si>
-  <si>
-    <t>TB0120</t>
-  </si>
-  <si>
-    <t>TB0084</t>
-  </si>
-  <si>
-    <t>TB0099</t>
-  </si>
-  <si>
-    <t>TB0034</t>
-  </si>
-  <si>
-    <t>TB0041</t>
-  </si>
-  <si>
-    <t>TB0066</t>
-  </si>
-  <si>
-    <t>TB0114</t>
-  </si>
-  <si>
-    <t>TB0050</t>
-  </si>
-  <si>
-    <t>TB0108</t>
-  </si>
-  <si>
-    <t>TB0024</t>
-  </si>
-  <si>
-    <t>TB0015</t>
-  </si>
-  <si>
-    <t>TB0012</t>
-  </si>
-  <si>
-    <t>TB0009</t>
-  </si>
-  <si>
-    <t>TB0067</t>
-  </si>
-  <si>
-    <t>TB0068</t>
-  </si>
-  <si>
-    <t>TB0096</t>
-  </si>
-  <si>
-    <t>TB0038</t>
-  </si>
-  <si>
-    <t>TB0026</t>
-  </si>
-  <si>
-    <t>TB0047</t>
-  </si>
-  <si>
-    <t>TB0004</t>
-  </si>
-  <si>
-    <t>TB0065</t>
-  </si>
-  <si>
-    <t>TB0056</t>
-  </si>
-  <si>
-    <t>TB0010</t>
-  </si>
-  <si>
-    <t>TB0083</t>
-  </si>
-  <si>
-    <t>TB0020</t>
-  </si>
-  <si>
-    <t>TB0061</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1742,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,9 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2106,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -4849,7 +4546,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B95" s="6">
         <v>8.8027899999999998E-4</v>
@@ -4878,7 +4575,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B96" s="6">
         <v>5.9891939999999998E-3</v>
@@ -4907,7 +4604,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B97" s="6">
         <v>-5.7932100000000005E-4</v>
@@ -4936,7 +4633,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B98" s="6">
         <v>-1.0745253999999999E-2</v>
@@ -4965,7 +4662,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B99" s="6">
         <v>1.3104367E-2</v>
@@ -4994,7 +4691,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B100" s="6">
         <v>-2.1400729E-2</v>
@@ -5023,7 +4720,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B101" s="6">
         <v>-1.7500277000000002E-2</v>
@@ -5052,7 +4749,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B102" s="6">
         <v>-8.8248159999999992E-3</v>
@@ -5091,11 +4788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,15 +4961,15 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B7" s="21">
+        <v>449</v>
+      </c>
+      <c r="B7" s="19">
         <v>3.1630300000000001E-5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>-1.3730064559999999</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>9.3682499999999996E-4</v>
       </c>
       <c r="E7" s="4">
@@ -5287,30 +4984,25 @@
       <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K7" s="4">
-        <v>-9.4479990000000003E-3</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-1.373886943</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1.680607E-3</v>
-      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="21">
+        <v>450</v>
+      </c>
+      <c r="B8" s="19">
         <v>1.8529073E-2</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>-1.372854864</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>4.1514029999999997E-3</v>
       </c>
       <c r="E8" s="4">
@@ -5325,30 +5017,25 @@
       <c r="H8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1.5922103999999999E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-1.3730530299999999</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2.1329930000000001E-3</v>
-      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="21">
+        <v>451</v>
+      </c>
+      <c r="B9" s="19">
         <v>-1.8492978E-2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>-1.373798174</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>-3.2045400000000001E-3</v>
       </c>
       <c r="E9" s="4">
@@ -5363,22 +5050,17 @@
       <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1.640877E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-1.374967096</v>
-      </c>
-      <c r="M9" s="4">
-        <v>-7.2442230000000002E-3</v>
-      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B10" s="4">
         <v>4.6740100000000001E-3</v>
@@ -5401,18 +5083,13 @@
       <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="16">
-        <f>SUM(K7:K9)</f>
-        <v>2.2882874999999997E-2</v>
-      </c>
-      <c r="L10" s="16">
-        <f>AVERAGE(L7:L9)</f>
-        <v>-1.3739690229999999</v>
-      </c>
-      <c r="M10" s="16">
-        <f t="shared" ref="M10" si="0">SUM(M7:M9)</f>
-        <v>-3.4306229999999998E-3</v>
-      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -5439,6 +5116,13 @@
       <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -5465,6 +5149,13 @@
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5491,6 +5182,13 @@
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -5517,6 +5215,13 @@
       <c r="H14" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -5543,30 +5248,13 @@
       <c r="H15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
-        <v>527</v>
-      </c>
-      <c r="K15">
-        <v>-7.713747E-3</v>
-      </c>
-      <c r="L15">
-        <v>-1.3728092380000001</v>
-      </c>
-      <c r="M15">
-        <v>6.0746430000000002E-3</v>
-      </c>
-      <c r="N15">
-        <f>K15*-1</f>
-        <v>7.713747E-3</v>
-      </c>
-      <c r="O15">
-        <f>L15</f>
-        <v>-1.3728092380000001</v>
-      </c>
-      <c r="P15">
-        <f>M15*-1</f>
-        <v>-6.0746430000000002E-3</v>
-      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -5593,27 +5281,13 @@
       <c r="H16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J16" t="s">
-        <v>528</v>
-      </c>
-      <c r="K16">
-        <v>-1.4621014999999999E-2</v>
-      </c>
-      <c r="L16">
-        <v>-1.3748293979999999</v>
-      </c>
-      <c r="M16">
-        <v>-7.9445760000000001E-3</v>
-      </c>
-      <c r="N16">
-        <v>-1.4621014999999999E-2</v>
-      </c>
-      <c r="O16">
-        <v>-1.3748293979999999</v>
-      </c>
-      <c r="P16">
-        <v>-7.9445760000000001E-3</v>
-      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -5640,30 +5314,13 @@
       <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J17" t="s">
-        <v>529</v>
-      </c>
-      <c r="K17">
-        <v>-2.219119E-2</v>
-      </c>
-      <c r="L17">
-        <v>-1.3735437180000001</v>
-      </c>
-      <c r="M17">
-        <v>-9.5620799999999995E-4</v>
-      </c>
-      <c r="N17">
-        <f>K17*-1</f>
-        <v>2.219119E-2</v>
-      </c>
-      <c r="O17">
-        <f>L17</f>
-        <v>-1.3735437180000001</v>
-      </c>
-      <c r="P17">
-        <f>M17*-1</f>
-        <v>9.5620799999999995E-4</v>
-      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -5690,18 +5347,13 @@
       <c r="H18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="16">
-        <f>SUM(N15:N17)</f>
-        <v>1.5283922E-2</v>
-      </c>
-      <c r="O18" s="16">
-        <f>AVERAGE(L10)</f>
-        <v>-1.3739690229999999</v>
-      </c>
-      <c r="P18" s="16">
-        <f t="shared" ref="O18:P18" si="1">SUM(P15:P17)</f>
-        <v>-1.3063010999999999E-2</v>
-      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -5728,7 +5380,13 @@
       <c r="H19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -5755,6 +5413,13 @@
       <c r="H20" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -5781,30 +5446,13 @@
       <c r="H21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
-        <v>452</v>
-      </c>
-      <c r="K21" s="8">
-        <v>-3.1630300000000001E-5</v>
-      </c>
-      <c r="L21">
-        <v>-1.3730064559999999</v>
-      </c>
-      <c r="M21">
-        <v>-9.3682499999999996E-4</v>
-      </c>
-      <c r="N21">
-        <f>K21*-1</f>
-        <v>3.1630300000000001E-5</v>
-      </c>
-      <c r="O21">
-        <f>L21</f>
-        <v>-1.3730064559999999</v>
-      </c>
-      <c r="P21">
-        <f>M21*-1</f>
-        <v>9.3682499999999996E-4</v>
-      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -5831,27 +5479,13 @@
       <c r="H22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J22" t="s">
-        <v>453</v>
-      </c>
-      <c r="K22">
-        <v>1.8529073E-2</v>
-      </c>
-      <c r="L22">
-        <v>-1.372854864</v>
-      </c>
-      <c r="M22">
-        <v>4.1514029999999997E-3</v>
-      </c>
-      <c r="N22">
-        <v>1.8529073E-2</v>
-      </c>
-      <c r="O22">
-        <v>-1.372854864</v>
-      </c>
-      <c r="P22">
-        <v>4.1514029999999997E-3</v>
-      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -5878,30 +5512,13 @@
       <c r="H23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J23" t="s">
-        <v>454</v>
-      </c>
-      <c r="K23">
-        <v>1.8492978E-2</v>
-      </c>
-      <c r="L23">
-        <v>-1.373798174</v>
-      </c>
-      <c r="M23">
-        <v>3.2045400000000001E-3</v>
-      </c>
-      <c r="N23">
-        <f>K23*-1</f>
-        <v>-1.8492978E-2</v>
-      </c>
-      <c r="O23">
-        <f>L23</f>
-        <v>-1.373798174</v>
-      </c>
-      <c r="P23">
-        <f>M23*-1</f>
-        <v>-3.2045400000000001E-3</v>
-      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -5928,18 +5545,13 @@
       <c r="H24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="16">
-        <f>SUM(N21:N23)</f>
-        <v>6.7725299999998184E-5</v>
-      </c>
-      <c r="O24" s="16">
-        <f>AVERAGE(L16)</f>
-        <v>-1.3748293979999999</v>
-      </c>
-      <c r="P24" s="16">
-        <f t="shared" ref="P24" si="2">SUM(P21:P23)</f>
-        <v>1.8836879999999992E-3</v>
-      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5966,6 +5578,13 @@
       <c r="H25" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -5992,6 +5611,13 @@
       <c r="H26" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -6018,30 +5644,13 @@
       <c r="H27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J27" t="s">
-        <v>545</v>
-      </c>
-      <c r="K27">
-        <v>-1.3201875E-2</v>
-      </c>
-      <c r="L27">
-        <v>-1.373768691</v>
-      </c>
-      <c r="M27">
-        <v>1.5939961999999998E-2</v>
-      </c>
-      <c r="N27">
-        <f>K27*-1</f>
-        <v>1.3201875E-2</v>
-      </c>
-      <c r="O27">
-        <f>L27</f>
-        <v>-1.373768691</v>
-      </c>
-      <c r="P27">
-        <f>M27*-1</f>
-        <v>-1.5939961999999998E-2</v>
-      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -6068,30 +5677,13 @@
       <c r="H28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J28" t="s">
-        <v>546</v>
-      </c>
-      <c r="K28">
-        <v>1.7257327999999999E-2</v>
-      </c>
-      <c r="L28">
-        <v>-1.3736921719999999</v>
-      </c>
-      <c r="M28">
-        <v>-1.445151E-3</v>
-      </c>
-      <c r="N28">
-        <f>K28</f>
-        <v>1.7257327999999999E-2</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ref="O28:P28" si="3">L28</f>
-        <v>-1.3736921719999999</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
-        <v>-1.445151E-3</v>
-      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -6118,30 +5710,13 @@
       <c r="H29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J29" t="s">
-        <v>547</v>
-      </c>
-      <c r="K29">
-        <v>1.3663738999999999E-2</v>
-      </c>
-      <c r="L29">
-        <v>-1.3753774940000001</v>
-      </c>
-      <c r="M29">
-        <v>-4.94642E-4</v>
-      </c>
-      <c r="N29">
-        <f>K29*-1</f>
-        <v>-1.3663738999999999E-2</v>
-      </c>
-      <c r="O29">
-        <f>L29</f>
-        <v>-1.3753774940000001</v>
-      </c>
-      <c r="P29">
-        <f>M29*-1</f>
-        <v>4.94642E-4</v>
-      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -6168,18 +5743,13 @@
       <c r="H30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="16">
-        <f>SUM(N27:N29)</f>
-        <v>1.6795463999999996E-2</v>
-      </c>
-      <c r="O30" s="16">
-        <f>AVERAGE(L22)</f>
-        <v>-1.372854864</v>
-      </c>
-      <c r="P30" s="16">
-        <f t="shared" ref="P30" si="4">SUM(P27:P29)</f>
-        <v>-1.6890470999999997E-2</v>
-      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -7849,7 +7419,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B95" s="6">
         <v>3.6527180000000001E-3</v>
@@ -7875,7 +7445,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B96" s="6">
         <v>1.3570100000000001E-3</v>
@@ -7901,7 +7471,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B97" s="6">
         <v>-1.8163579999999999E-2</v>
@@ -7927,7 +7497,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B98" s="6">
         <v>-4.410962E-3</v>
@@ -7953,7 +7523,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B99" s="6">
         <v>5.079648E-3</v>
@@ -7979,7 +7549,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B100" s="6">
         <v>4.616546E-3</v>
@@ -8005,7 +7575,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B101" s="9">
         <v>-4.8617110000000003E-3</v>
@@ -8031,7 +7601,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B102" s="6">
         <v>-8.7007330000000004E-3</v>
@@ -8061,7 +7631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -8112,7 +7682,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B2" s="4">
         <v>6.161616E-3</v>
@@ -8145,7 +7715,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B3" s="14">
         <v>1.7967911999999999E-2</v>
@@ -8178,7 +7748,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B4" s="4">
         <v>-3.2383599999999998E-4</v>
@@ -8211,7 +7781,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B5" s="4">
         <v>1.1803456E-2</v>
@@ -8244,7 +7814,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B6" s="4">
         <v>1.1930616999999999E-2</v>
@@ -8277,7 +7847,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B7" s="4">
         <v>-1.4664236000000001E-2</v>
@@ -8310,7 +7880,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B8" s="4">
         <v>9.7260239999999998E-3</v>
@@ -8376,7 +7946,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B10" s="4">
         <v>4.5001700000000004E-3</v>
@@ -10516,7 +10086,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B75" s="16">
         <v>1.5326064E-2</v>
@@ -10543,7 +10113,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B76" s="16">
         <v>1.8104867E-2</v>
@@ -10570,7 +10140,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B77" s="17">
         <v>-1.7058027E-2</v>
@@ -10598,7 +10168,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B78" s="17">
         <v>-1.6442083E-2</v>
@@ -11149,7 +10719,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B95" s="6">
         <v>2.9357659999999998E-3</v>
@@ -11182,7 +10752,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B96" s="6">
         <v>1.2640939999999999E-3</v>
@@ -11215,7 +10785,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B97" s="6">
         <v>-2.1096581E-2</v>
@@ -11248,7 +10818,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B98" s="6">
         <v>-1.6149226999999999E-2</v>
@@ -11281,7 +10851,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B99" s="6">
         <v>5.8018729999999999E-3</v>
@@ -11314,7 +10884,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B100" s="6">
         <v>-6.8827610000000003E-3</v>
@@ -11347,7 +10917,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B101" s="6">
         <v>1.8295874E-2</v>
@@ -11380,7 +10950,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B102" s="6">
         <v>1.0522470000000001E-3</v>
@@ -11472,11 +11042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11520,7 +11090,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B2" s="4">
         <v>1.5225290000000001E-2</v>
@@ -11548,7 +11118,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B3" s="4">
         <v>-5.612995E-3</v>
@@ -11576,7 +11146,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B4" s="4">
         <v>3.9926959999999996E-3</v>
@@ -11604,7 +11174,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B5" s="4">
         <v>6.8047289999999998E-3</v>
@@ -11632,7 +11202,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B6" s="4">
         <v>7.9053230000000006E-3</v>
@@ -11660,7 +11230,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B7" s="4">
         <v>-3.0199269999999999E-3</v>
@@ -11688,7 +11258,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B8" s="4">
         <v>1.7032603E-2</v>
@@ -11716,7 +11286,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B9" s="4">
         <v>1.9740796000000001E-2</v>
@@ -11744,7 +11314,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B10" s="4">
         <v>-1.2012956999999999E-2</v>
@@ -14124,7 +13694,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B95" s="6">
         <v>2.1158600999999999E-2</v>
@@ -14152,7 +13722,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B96" s="6">
         <v>2.0174226E-2</v>
@@ -14180,7 +13750,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B97" s="6">
         <v>-1.6756408E-2</v>
@@ -14208,7 +13778,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B98" s="6">
         <v>4.25853E-3</v>
@@ -14236,7 +13806,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B99" s="6">
         <v>-1.6809043999999999E-2</v>
@@ -14264,7 +13834,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B100" s="6">
         <v>2.5802249999999998E-3</v>
@@ -14292,7 +13862,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B101" s="6">
         <v>1.11804E-4</v>
@@ -14320,7 +13890,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B102" s="6">
         <v>-1.9939591E-2</v>
@@ -14353,2545 +13923,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7E8D29-69FA-4055-8F9B-2B23366EBDB4}">
-  <dimension ref="A1:AC33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:L32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="17" max="17" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="8">
-        <v>-3.1630300000000001E-5</v>
-      </c>
-      <c r="E1">
-        <v>-1.3730064559999999</v>
-      </c>
-      <c r="F1">
-        <v>-9.3682499999999996E-4</v>
-      </c>
-      <c r="G1">
-        <v>1.8529073E-2</v>
-      </c>
-      <c r="H1">
-        <v>-1.372854864</v>
-      </c>
-      <c r="I1">
-        <v>4.1514029999999997E-3</v>
-      </c>
-      <c r="J1">
-        <v>1.8492978E-2</v>
-      </c>
-      <c r="K1">
-        <v>-1.373798174</v>
-      </c>
-      <c r="L1">
-        <v>3.2045400000000001E-3</v>
-      </c>
-      <c r="M1" s="8">
-        <v>4.4647000000015702E-6</v>
-      </c>
-      <c r="N1" s="8">
-        <v>1.00379999999995E-5</v>
-      </c>
-      <c r="O1">
-        <v>6.0082547941984997E-2</v>
-      </c>
-      <c r="Q1" s="19">
-        <f>D1*-1+G1+J1*-1</f>
-        <v>6.7725299999998184E-5</v>
-      </c>
-      <c r="R1">
-        <f>(E1+H1+K1)/3</f>
-        <v>-1.3732198313333335</v>
-      </c>
-      <c r="S1" s="20">
-        <f>F1*-1+I1+L1*-1</f>
-        <v>1.8836879999999992E-3</v>
-      </c>
-      <c r="U1">
-        <f>ABS(Q1-AA$4)</f>
-        <v>2.2815149699999999E-2</v>
-      </c>
-      <c r="V1">
-        <f>ABS(R1-AB$4)</f>
-        <v>7.4919166666642667E-4</v>
-      </c>
-      <c r="W1">
-        <f>ABS(S1-AC$4)</f>
-        <v>5.3143109999999986E-3</v>
-      </c>
-      <c r="X1">
-        <f>(U1^2+V1^2+W1^2)^(1/2)</f>
-        <v>2.3437880565263008E-2</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>-9.4479990000000003E-3</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>-1.373886943</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>1.680607E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2">
-        <v>1.766356E-3</v>
-      </c>
-      <c r="E2">
-        <v>-1.3731211699999999</v>
-      </c>
-      <c r="F2">
-        <v>-3.7929199999999999E-4</v>
-      </c>
-      <c r="G2">
-        <v>4.6148379999999996E-3</v>
-      </c>
-      <c r="H2">
-        <v>-1.3759362749999999</v>
-      </c>
-      <c r="I2">
-        <v>6.8867349999999997E-3</v>
-      </c>
-      <c r="J2">
-        <v>6.3987009999999997E-3</v>
-      </c>
-      <c r="K2">
-        <v>-1.3724376</v>
-      </c>
-      <c r="L2">
-        <v>6.6120320000000003E-3</v>
-      </c>
-      <c r="M2" s="8">
-        <v>-1.7506999999999899E-5</v>
-      </c>
-      <c r="N2">
-        <v>-1.04589E-4</v>
-      </c>
-      <c r="O2">
-        <v>0.49325123653164898</v>
-      </c>
-      <c r="Q2" s="19">
-        <f t="shared" ref="Q2:Q33" si="0">D2*-1+G2+J2*-1</f>
-        <v>-3.5502190000000003E-3</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R32" si="1">(E2+H2+K2)/3</f>
-        <v>-1.3738316816666665</v>
-      </c>
-      <c r="S2" s="20">
-        <f t="shared" ref="S2:S33" si="2">F2*-1+I2+L2*-1</f>
-        <v>6.5399499999999923E-4</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U33" si="3">ABS(Q2-AA$4)</f>
-        <v>2.6433093999999997E-2</v>
-      </c>
-      <c r="V2">
-        <f t="shared" ref="V2:V33" si="4">ABS(R2-AB$4)</f>
-        <v>1.3734133333342946E-4</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W33" si="5">ABS(S2-AC$4)</f>
-        <v>4.0846179999999991E-3</v>
-      </c>
-      <c r="X2">
-        <f t="shared" ref="X2:X33" si="6">(U2^2+V2^2+W2^2)^(1/2)</f>
-        <v>2.6747176024032922E-2</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>1.5922103999999999E-2</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>-1.3730530299999999</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>2.1329930000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3">
-        <v>-5.0542199999999995E-4</v>
-      </c>
-      <c r="E3">
-        <v>-1.373352653</v>
-      </c>
-      <c r="F3">
-        <v>-2.709192E-3</v>
-      </c>
-      <c r="G3">
-        <v>-2.3948929999999999E-3</v>
-      </c>
-      <c r="H3">
-        <v>-1.3763583450000001</v>
-      </c>
-      <c r="I3">
-        <v>-4.14965E-4</v>
-      </c>
-      <c r="J3">
-        <v>-2.9128050000000001E-3</v>
-      </c>
-      <c r="K3">
-        <v>-1.3731293280000001</v>
-      </c>
-      <c r="L3">
-        <v>-2.9896459999999999E-3</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1.24900000000004E-5</v>
-      </c>
-      <c r="N3">
-        <v>-1.34510999999999E-4</v>
-      </c>
-      <c r="O3">
-        <v>0.61183673510177505</v>
-      </c>
-      <c r="Q3" s="19">
-        <f t="shared" si="0"/>
-        <v>1.0233340000000001E-3</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="1"/>
-        <v>-1.3742801086666667</v>
-      </c>
-      <c r="S3" s="20">
-        <f t="shared" si="2"/>
-        <v>5.2838729999999997E-3</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="3"/>
-        <v>2.1859540999999996E-2</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="4"/>
-        <v>3.1108566666682158E-4</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="5"/>
-        <v>8.7144959999999987E-3</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="6"/>
-        <v>2.3534628689586379E-2</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>1.640877E-2</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>-1.374967096</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>-7.2442230000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4">
-        <v>1.9062899999999999E-4</v>
-      </c>
-      <c r="E4">
-        <v>-1.373202663</v>
-      </c>
-      <c r="F4">
-        <v>-2.2742159999999999E-3</v>
-      </c>
-      <c r="G4">
-        <v>3.7532700000000001E-4</v>
-      </c>
-      <c r="H4">
-        <v>-1.3737477</v>
-      </c>
-      <c r="I4">
-        <v>-2.387218E-3</v>
-      </c>
-      <c r="J4">
-        <v>6.2629999999999999E-4</v>
-      </c>
-      <c r="K4">
-        <v>-1.373172346</v>
-      </c>
-      <c r="L4">
-        <v>-4.5809659999999997E-3</v>
-      </c>
-      <c r="M4" s="8">
-        <v>-6.0343999999999902E-5</v>
-      </c>
-      <c r="N4" s="8">
-        <v>-8.0468000000000206E-5</v>
-      </c>
-      <c r="O4">
-        <v>0.64870166283122699</v>
-      </c>
-      <c r="Q4" s="19">
-        <f t="shared" si="0"/>
-        <v>-4.4160199999999998E-4</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
-        <v>-1.3733742363333334</v>
-      </c>
-      <c r="S4" s="20">
-        <f t="shared" si="2"/>
-        <v>4.4679639999999996E-3</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
-        <v>2.3324476999999996E-2</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="4"/>
-        <v>5.9478666666645807E-4</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="5"/>
-        <v>7.8985869999999986E-3</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="6"/>
-        <v>2.4632756140938471E-2</v>
-      </c>
-      <c r="AA4">
-        <f>SUM(AA1:AA3)</f>
-        <v>2.2882874999999997E-2</v>
-      </c>
-      <c r="AB4">
-        <f>AVERAGE(AB1:AB3)</f>
-        <v>-1.3739690229999999</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4" si="7">SUM(AC1:AC3)</f>
-        <v>-3.4306229999999998E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5">
-        <v>1.1984809999999999E-3</v>
-      </c>
-      <c r="E5">
-        <v>-1.3736151160000001</v>
-      </c>
-      <c r="F5">
-        <v>4.927397E-3</v>
-      </c>
-      <c r="G5">
-        <v>1.7113359999999999E-3</v>
-      </c>
-      <c r="H5">
-        <v>-1.3747239790000001</v>
-      </c>
-      <c r="I5">
-        <v>-1.66102E-4</v>
-      </c>
-      <c r="J5">
-        <v>2.8713689999999999E-3</v>
-      </c>
-      <c r="K5">
-        <v>-1.3738341030000001</v>
-      </c>
-      <c r="L5">
-        <v>4.6185879999999999E-3</v>
-      </c>
-      <c r="M5" s="8">
-        <v>3.84479999999999E-5</v>
-      </c>
-      <c r="N5">
-        <v>1.42707E-4</v>
-      </c>
-      <c r="O5">
-        <v>0.724959070086031</v>
-      </c>
-      <c r="Q5" s="19">
-        <f t="shared" si="0"/>
-        <v>-2.3585139999999999E-3</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>-1.3740577326666668</v>
-      </c>
-      <c r="S5" s="20">
-        <f t="shared" si="2"/>
-        <v>-9.7120869999999995E-3</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>2.5241388999999996E-2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>8.8709666666852982E-5</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="5"/>
-        <v>6.2814639999999996E-3</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="6"/>
-        <v>2.6011389390756829E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D6">
-        <v>1.0216890000000001E-3</v>
-      </c>
-      <c r="E6">
-        <v>-1.3746132579999999</v>
-      </c>
-      <c r="F6">
-        <v>4.408164E-3</v>
-      </c>
-      <c r="G6">
-        <v>1.7166515E-2</v>
-      </c>
-      <c r="H6">
-        <v>-1.374843152</v>
-      </c>
-      <c r="I6">
-        <v>-1.512284E-3</v>
-      </c>
-      <c r="J6">
-        <v>1.8130447000000001E-2</v>
-      </c>
-      <c r="K6">
-        <v>-1.3732731039999999</v>
-      </c>
-      <c r="L6">
-        <v>3.010272E-3</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5.7756999999998499E-5</v>
-      </c>
-      <c r="N6">
-        <v>-1.14392E-4</v>
-      </c>
-      <c r="O6">
-        <v>0.72703526544452202</v>
-      </c>
-      <c r="Q6" s="19">
-        <f t="shared" si="0"/>
-        <v>-1.9856209999999999E-3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>-1.3742431713333332</v>
-      </c>
-      <c r="S6" s="20">
-        <f t="shared" si="2"/>
-        <v>-8.9307199999999996E-3</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
-        <v>2.4868495999999997E-2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>2.7414833333327948E-4</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>5.5000969999999998E-3</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="6"/>
-        <v>2.5470930835367878E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" t="s">
-        <v>472</v>
-      </c>
-      <c r="D7">
-        <v>9.4198399999999999E-4</v>
-      </c>
-      <c r="E7">
-        <v>-1.3732591700000001</v>
-      </c>
-      <c r="F7">
-        <v>-2.0717500000000001E-4</v>
-      </c>
-      <c r="G7">
-        <v>3.2237289999999998E-3</v>
-      </c>
-      <c r="H7">
-        <v>-1.3710242749999999</v>
-      </c>
-      <c r="I7">
-        <v>3.1166330000000002E-3</v>
-      </c>
-      <c r="J7">
-        <v>4.2269300000000003E-3</v>
-      </c>
-      <c r="K7">
-        <v>-1.373453043</v>
-      </c>
-      <c r="L7">
-        <v>3.0591009999999998E-3</v>
-      </c>
-      <c r="M7" s="8">
-        <v>-6.1217000000000495E-5</v>
-      </c>
-      <c r="N7">
-        <v>-1.49642999999999E-4</v>
-      </c>
-      <c r="O7">
-        <v>0.86467464175839104</v>
-      </c>
-      <c r="Q7" s="19">
-        <f t="shared" si="0"/>
-        <v>-1.9451850000000003E-3</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>-1.3725788293333334</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" si="2"/>
-        <v>2.6470700000000031E-4</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>2.4828059999999999E-2</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
-        <v>1.3901936666664838E-3</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>3.6953300000000001E-3</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>2.5140021193374912E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3.7030200000000003E-5</v>
-      </c>
-      <c r="E8">
-        <v>-1.374861431</v>
-      </c>
-      <c r="F8">
-        <v>-5.4479749999999999E-3</v>
-      </c>
-      <c r="G8">
-        <v>3.7813399999999998E-3</v>
-      </c>
-      <c r="H8">
-        <v>-1.3750661870000001</v>
-      </c>
-      <c r="I8">
-        <v>7.9278130000000006E-3</v>
-      </c>
-      <c r="J8">
-        <v>3.835555E-3</v>
-      </c>
-      <c r="K8">
-        <v>-1.3731063910000001</v>
-      </c>
-      <c r="L8">
-        <v>2.6787289999999999E-3</v>
-      </c>
-      <c r="M8" s="8">
-        <v>-1.7184800000000198E-5</v>
-      </c>
-      <c r="N8">
-        <v>-1.98890999999999E-4</v>
-      </c>
-      <c r="O8">
-        <v>0.90265053354174296</v>
-      </c>
-      <c r="Q8" s="19">
-        <f t="shared" si="0"/>
-        <v>-9.1245200000000283E-5</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>-1.3743446696666668</v>
-      </c>
-      <c r="S8" s="20">
-        <f t="shared" si="2"/>
-        <v>1.0697059E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>2.2974120199999996E-2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>3.7564666666689561E-4</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>1.4127681999999999E-2</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="6"/>
-        <v>2.6972999612118593E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" t="s">
-        <v>478</v>
-      </c>
-      <c r="D9">
-        <v>-1.5600880000000001E-3</v>
-      </c>
-      <c r="E9">
-        <v>-1.372645063</v>
-      </c>
-      <c r="F9">
-        <v>-3.3889459999999999E-3</v>
-      </c>
-      <c r="G9">
-        <v>4.5428029999999998E-3</v>
-      </c>
-      <c r="H9">
-        <v>-1.3735860070000001</v>
-      </c>
-      <c r="I9">
-        <v>1.9962309999999998E-3</v>
-      </c>
-      <c r="J9">
-        <v>3.050021E-3</v>
-      </c>
-      <c r="K9">
-        <v>-1.3748607399999999</v>
-      </c>
-      <c r="L9">
-        <v>-1.230245E-3</v>
-      </c>
-      <c r="M9" s="8">
-        <v>-6.7306000000000402E-5</v>
-      </c>
-      <c r="N9">
-        <v>-1.6247000000000001E-4</v>
-      </c>
-      <c r="O9">
-        <v>0.94357714516620494</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="0"/>
-        <v>3.0528700000000001E-3</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>-1.3736972700000001</v>
-      </c>
-      <c r="S9" s="20">
-        <f t="shared" si="2"/>
-        <v>6.6154219999999993E-3</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>1.9830004999999998E-2</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
-        <v>2.7175299999981917E-4</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="5"/>
-        <v>1.0046045E-2</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="6"/>
-        <v>2.2231193583230273E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C10" t="s">
-        <v>481</v>
-      </c>
-      <c r="D10">
-        <v>2.4040760000000002E-3</v>
-      </c>
-      <c r="E10">
-        <v>-1.3747105829999999</v>
-      </c>
-      <c r="F10">
-        <v>-4.1084249999999998E-3</v>
-      </c>
-      <c r="G10">
-        <v>2.5533859999999999E-3</v>
-      </c>
-      <c r="H10">
-        <v>-1.3737845980000001</v>
-      </c>
-      <c r="I10">
-        <v>3.3850809999999999E-3</v>
-      </c>
-      <c r="J10">
-        <v>4.9276779999999996E-3</v>
-      </c>
-      <c r="K10">
-        <v>-1.373485061</v>
-      </c>
-      <c r="L10">
-        <v>-9.4667299999999998E-4</v>
-      </c>
-      <c r="M10" s="8">
-        <v>2.97840000000005E-5</v>
-      </c>
-      <c r="N10">
-        <v>2.23329E-4</v>
-      </c>
-      <c r="O10">
-        <v>1.0336748895566701</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="0"/>
-        <v>-4.7783679999999999E-3</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>-1.3739934140000001</v>
-      </c>
-      <c r="S10" s="20">
-        <f t="shared" si="2"/>
-        <v>8.440178999999999E-3</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
-        <v>2.7661242999999995E-2</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="4"/>
-        <v>2.4391000000179019E-5</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="5"/>
-        <v>1.1870802E-2</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="6"/>
-        <v>3.0100845492263731E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" t="s">
-        <v>484</v>
-      </c>
-      <c r="D11">
-        <v>-2.31952E-4</v>
-      </c>
-      <c r="E11">
-        <v>-1.3756939159999999</v>
-      </c>
-      <c r="F11">
-        <v>-3.9763300000000001E-3</v>
-      </c>
-      <c r="G11">
-        <v>3.9135029999999996E-3</v>
-      </c>
-      <c r="H11">
-        <v>-1.3749553560000001</v>
-      </c>
-      <c r="I11">
-        <v>1.35947E-4</v>
-      </c>
-      <c r="J11">
-        <v>3.712936E-3</v>
-      </c>
-      <c r="K11">
-        <v>-1.373928939</v>
-      </c>
-      <c r="L11">
-        <v>-4.0917729999999999E-3</v>
-      </c>
-      <c r="M11" s="8">
-        <v>-3.13850000000005E-5</v>
-      </c>
-      <c r="N11">
-        <v>2.5138999999999901E-4</v>
-      </c>
-      <c r="O11">
-        <v>1.15876662879114</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="0"/>
-        <v>4.3251899999999927E-4</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>-1.3748594036666668</v>
-      </c>
-      <c r="S11" s="20">
-        <f t="shared" si="2"/>
-        <v>8.2040500000000009E-3</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>2.2450355999999998E-2</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
-        <v>8.9038066666691229E-4</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="5"/>
-        <v>1.1634673000000002E-2</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="6"/>
-        <v>2.5301716899752854E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D12">
-        <v>6.1992600000000003E-4</v>
-      </c>
-      <c r="E12">
-        <v>-1.3748173420000001</v>
-      </c>
-      <c r="F12">
-        <v>1.2236529999999999E-3</v>
-      </c>
-      <c r="G12">
-        <v>-4.7079909999999999E-3</v>
-      </c>
-      <c r="H12">
-        <v>-1.3717443060000001</v>
-      </c>
-      <c r="I12">
-        <v>-1.979597E-3</v>
-      </c>
-      <c r="J12">
-        <v>-4.081243E-3</v>
-      </c>
-      <c r="K12">
-        <v>-1.374440638</v>
-      </c>
-      <c r="L12">
-        <v>-4.4994499999999999E-4</v>
-      </c>
-      <c r="M12" s="8">
-        <v>-6.8220000000000704E-6</v>
-      </c>
-      <c r="N12">
-        <v>-3.05999E-4</v>
-      </c>
-      <c r="O12">
-        <v>1.36982879760209</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="0"/>
-        <v>-1.2466739999999997E-3</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>-1.3736674286666668</v>
-      </c>
-      <c r="S12" s="20">
-        <f t="shared" si="2"/>
-        <v>-2.7533050000000002E-3</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>2.4129548999999997E-2</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
-        <v>3.0159433333309948E-4</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="5"/>
-        <v>6.7731799999999967E-4</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="6"/>
-        <v>2.414093730074339E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>488</v>
-      </c>
-      <c r="B13" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5.4647900000000002E-5</v>
-      </c>
-      <c r="E13">
-        <v>-1.3731979969999999</v>
-      </c>
-      <c r="F13">
-        <v>-1.75825E-3</v>
-      </c>
-      <c r="G13">
-        <v>-2.3814961999999999E-2</v>
-      </c>
-      <c r="H13">
-        <v>-1.3745581259999999</v>
-      </c>
-      <c r="I13">
-        <v>-4.5593079999999998E-3</v>
-      </c>
-      <c r="J13">
-        <v>-2.3827530999999999E-2</v>
-      </c>
-      <c r="K13">
-        <v>-1.3731185130000001</v>
-      </c>
-      <c r="L13">
-        <v>-6.6087369999999999E-3</v>
-      </c>
-      <c r="M13" s="8">
-        <v>6.7216899999999997E-5</v>
-      </c>
-      <c r="N13">
-        <v>2.91178999999999E-4</v>
-      </c>
-      <c r="O13">
-        <v>1.4342779132611601</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="0"/>
-        <v>-4.2078899999999086E-5</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
-        <v>-1.3736248786666667</v>
-      </c>
-      <c r="S13" s="20">
-        <f t="shared" si="2"/>
-        <v>3.8076790000000004E-3</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="3"/>
-        <v>2.2924953899999996E-2</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="4"/>
-        <v>3.4414433333318506E-4</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="5"/>
-        <v>7.2383020000000003E-3</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="6"/>
-        <v>2.4042981563909549E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>491</v>
-      </c>
-      <c r="B14" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" t="s">
-        <v>493</v>
-      </c>
-      <c r="D14">
-        <v>-1.4120719999999999E-3</v>
-      </c>
-      <c r="E14">
-        <v>-1.374044628</v>
-      </c>
-      <c r="F14">
-        <v>2.5362319999999998E-3</v>
-      </c>
-      <c r="G14">
-        <v>-2.495415E-3</v>
-      </c>
-      <c r="H14">
-        <v>-1.3718468690000001</v>
-      </c>
-      <c r="I14">
-        <v>-2.6142940000000001E-3</v>
-      </c>
-      <c r="J14">
-        <v>-3.9290430000000001E-3</v>
-      </c>
-      <c r="K14">
-        <v>-1.374322759</v>
-      </c>
-      <c r="L14">
-        <v>2.7425399999999998E-4</v>
-      </c>
-      <c r="M14" s="8">
-        <v>2.15560000000007E-5</v>
-      </c>
-      <c r="N14">
-        <v>-3.5231599999999998E-4</v>
-      </c>
-      <c r="O14">
-        <v>1.58735760558231</v>
-      </c>
-      <c r="Q14" s="19">
-        <f t="shared" si="0"/>
-        <v>2.8457000000000001E-3</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
-        <v>-1.3734047520000001</v>
-      </c>
-      <c r="S14" s="20">
-        <f t="shared" si="2"/>
-        <v>-5.4247799999999997E-3</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="3"/>
-        <v>2.0037174999999997E-2</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="4"/>
-        <v>5.6427099999978303E-4</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="5"/>
-        <v>1.9941569999999999E-3</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="6"/>
-        <v>2.0144067262663583E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C15" t="s">
-        <v>496</v>
-      </c>
-      <c r="D15">
-        <v>-4.8463E-4</v>
-      </c>
-      <c r="E15">
-        <v>-1.3760886219999999</v>
-      </c>
-      <c r="F15">
-        <v>7.1475779999999999E-3</v>
-      </c>
-      <c r="G15">
-        <v>1.7919576E-2</v>
-      </c>
-      <c r="H15">
-        <v>-1.3739402110000001</v>
-      </c>
-      <c r="I15">
-        <v>-6.6177800000000002E-4</v>
-      </c>
-      <c r="J15">
-        <v>1.7575888000000001E-2</v>
-      </c>
-      <c r="K15">
-        <v>-1.3741027649999999</v>
-      </c>
-      <c r="L15">
-        <v>6.2676620000000002E-3</v>
-      </c>
-      <c r="M15">
-        <v>-1.40942000000001E-4</v>
-      </c>
-      <c r="N15">
-        <v>2.1813799999999899E-4</v>
-      </c>
-      <c r="O15">
-        <v>1.5940061260861</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="0"/>
-        <v>8.2831799999999803E-4</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>-1.3747105326666667</v>
-      </c>
-      <c r="S15" s="20">
-        <f t="shared" si="2"/>
-        <v>-1.4077018E-2</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="3"/>
-        <v>2.2054556999999999E-2</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="4"/>
-        <v>7.4150966666675089E-4</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="5"/>
-        <v>1.0646394999999999E-2</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="6"/>
-        <v>2.4501000949921092E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" t="s">
-        <v>498</v>
-      </c>
-      <c r="C16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16">
-        <v>6.7164600000000003E-4</v>
-      </c>
-      <c r="E16">
-        <v>-1.3731759589999999</v>
-      </c>
-      <c r="F16">
-        <v>8.7239889999999997E-3</v>
-      </c>
-      <c r="G16">
-        <v>8.7053E-4</v>
-      </c>
-      <c r="H16">
-        <v>-1.374479566</v>
-      </c>
-      <c r="I16">
-        <v>-3.0396350000000002E-3</v>
-      </c>
-      <c r="J16">
-        <v>1.5058750000000001E-3</v>
-      </c>
-      <c r="K16">
-        <v>-1.374106426</v>
-      </c>
-      <c r="L16">
-        <v>6.0477439999999999E-3</v>
-      </c>
-      <c r="M16" s="8">
-        <v>3.6300999999999997E-5</v>
-      </c>
-      <c r="N16">
-        <v>-3.6339E-4</v>
-      </c>
-      <c r="O16">
-        <v>1.6572467680101199</v>
-      </c>
-      <c r="Q16" s="19">
-        <f t="shared" si="0"/>
-        <v>-1.306991E-3</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
-        <v>-1.3739206503333332</v>
-      </c>
-      <c r="S16" s="20">
-        <f t="shared" si="2"/>
-        <v>-1.7811368000000001E-2</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="3"/>
-        <v>2.4189865999999997E-2</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="4"/>
-        <v>4.8372666666685049E-5</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="5"/>
-        <v>1.4380745E-2</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="6"/>
-        <v>2.8141744504700864E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>500</v>
-      </c>
-      <c r="B17" t="s">
-        <v>501</v>
-      </c>
-      <c r="C17" t="s">
-        <v>502</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-3.5680599999999999E-5</v>
-      </c>
-      <c r="E17">
-        <v>-1.375251513</v>
-      </c>
-      <c r="F17">
-        <v>-8.1113939999999992E-3</v>
-      </c>
-      <c r="G17">
-        <v>-5.6519680000000003E-3</v>
-      </c>
-      <c r="H17">
-        <v>-1.375292755</v>
-      </c>
-      <c r="I17">
-        <v>6.0047019999999998E-3</v>
-      </c>
-      <c r="J17">
-        <v>-5.651901E-3</v>
-      </c>
-      <c r="K17">
-        <v>-1.373179267</v>
-      </c>
-      <c r="L17">
-        <v>-2.4776820000000001E-3</v>
-      </c>
-      <c r="M17" s="8">
-        <v>-3.57476000000002E-5</v>
-      </c>
-      <c r="N17">
-        <v>3.7099000000000002E-4</v>
-      </c>
-      <c r="O17">
-        <v>1.68964578372533</v>
-      </c>
-      <c r="Q17" s="19">
-        <f t="shared" si="0"/>
-        <v>3.5613599999999648E-5</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="1"/>
-        <v>-1.3745745116666666</v>
-      </c>
-      <c r="S17" s="20">
-        <f t="shared" si="2"/>
-        <v>1.6593777999999997E-2</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="3"/>
-        <v>2.2847261399999999E-2</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
-        <v>6.0548866666665369E-4</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="5"/>
-        <v>2.0024400999999997E-2</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="6"/>
-        <v>3.0386520126763326E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>503</v>
-      </c>
-      <c r="B18" t="s">
-        <v>504</v>
-      </c>
-      <c r="C18" t="s">
-        <v>505</v>
-      </c>
-      <c r="D18">
-        <v>-1.467835E-3</v>
-      </c>
-      <c r="E18">
-        <v>-1.374931159</v>
-      </c>
-      <c r="F18">
-        <v>-7.0589800000000005E-4</v>
-      </c>
-      <c r="G18">
-        <v>-1.8139605E-2</v>
-      </c>
-      <c r="H18">
-        <v>-1.372881107</v>
-      </c>
-      <c r="I18">
-        <v>-7.4477799999999998E-4</v>
-      </c>
-      <c r="J18">
-        <v>-1.9735387E-2</v>
-      </c>
-      <c r="K18">
-        <v>-1.371568608</v>
-      </c>
-      <c r="L18">
-        <v>-1.7309109999999999E-3</v>
-      </c>
-      <c r="M18">
-        <v>1.27946999999999E-4</v>
-      </c>
-      <c r="N18">
-        <v>2.8023499999999901E-4</v>
-      </c>
-      <c r="O18">
-        <v>1.6971352006307501</v>
-      </c>
-      <c r="Q18" s="19">
-        <f t="shared" si="0"/>
-        <v>3.0636170000000011E-3</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
-        <v>-1.3731269580000001</v>
-      </c>
-      <c r="S18" s="20">
-        <f t="shared" si="2"/>
-        <v>1.6920310000000001E-3</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="3"/>
-        <v>1.9819257999999996E-2</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="4"/>
-        <v>8.4206499999983642E-4</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="5"/>
-        <v>5.1226539999999999E-3</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="6"/>
-        <v>2.0487890207107822E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>506</v>
-      </c>
-      <c r="B19" t="s">
-        <v>507</v>
-      </c>
-      <c r="C19" t="s">
-        <v>508</v>
-      </c>
-      <c r="D19">
-        <v>1.150337E-3</v>
-      </c>
-      <c r="E19">
-        <v>-1.3754746470000001</v>
-      </c>
-      <c r="F19">
-        <v>1.2127819999999999E-3</v>
-      </c>
-      <c r="G19">
-        <v>1.7454384E-2</v>
-      </c>
-      <c r="H19">
-        <v>-1.372981306</v>
-      </c>
-      <c r="I19">
-        <v>-5.0780400000000005E-4</v>
-      </c>
-      <c r="J19">
-        <v>1.8612828000000001E-2</v>
-      </c>
-      <c r="K19">
-        <v>-1.3741425380000001</v>
-      </c>
-      <c r="L19">
-        <v>2.9986599999999998E-4</v>
-      </c>
-      <c r="M19" s="8">
-        <v>-8.1070000000002495E-6</v>
-      </c>
-      <c r="N19">
-        <v>4.0511199999999898E-4</v>
-      </c>
-      <c r="O19">
-        <v>1.8131664365964799</v>
-      </c>
-      <c r="Q19" s="19">
-        <f t="shared" si="0"/>
-        <v>-2.3087810000000028E-3</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="1"/>
-        <v>-1.374199497</v>
-      </c>
-      <c r="S19" s="20">
-        <f t="shared" si="2"/>
-        <v>-2.0204519999999998E-3</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="3"/>
-        <v>2.5191656E-2</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="4"/>
-        <v>2.3047400000009155E-4</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="5"/>
-        <v>1.410171E-3</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="6"/>
-        <v>2.5232146807916543E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>509</v>
-      </c>
-      <c r="B20" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" t="s">
-        <v>511</v>
-      </c>
-      <c r="D20">
-        <v>7.1775099999999998E-4</v>
-      </c>
-      <c r="E20">
-        <v>-1.3740266240000001</v>
-      </c>
-      <c r="F20">
-        <v>-8.3953340000000008E-3</v>
-      </c>
-      <c r="G20">
-        <v>-1.2797310000000001E-3</v>
-      </c>
-      <c r="H20">
-        <v>-1.373466828</v>
-      </c>
-      <c r="I20">
-        <v>5.8490260000000002E-3</v>
-      </c>
-      <c r="J20">
-        <v>-7.6662200000000001E-4</v>
-      </c>
-      <c r="K20">
-        <v>-1.3742849070000001</v>
-      </c>
-      <c r="L20">
-        <v>-2.5239799999999999E-3</v>
-      </c>
-      <c r="M20">
-        <v>2.0464199999999899E-4</v>
-      </c>
-      <c r="N20" s="8">
-        <v>-2.2328000000000698E-5</v>
-      </c>
-      <c r="O20">
-        <v>1.8330953725324799</v>
-      </c>
-      <c r="Q20" s="19">
-        <f t="shared" si="0"/>
-        <v>-1.2308600000000001E-3</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="1"/>
-        <v>-1.3739261196666668</v>
-      </c>
-      <c r="S20" s="20">
-        <f t="shared" si="2"/>
-        <v>1.676834E-2</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="3"/>
-        <v>2.4113734999999997E-2</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="4"/>
-        <v>4.2903333333121907E-5</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="5"/>
-        <v>2.0198963E-2</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="6"/>
-        <v>3.1455876440207559E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>512</v>
-      </c>
-      <c r="B21" t="s">
-        <v>513</v>
-      </c>
-      <c r="C21" t="s">
-        <v>514</v>
-      </c>
-      <c r="D21">
-        <v>2.1050029999999998E-3</v>
-      </c>
-      <c r="E21">
-        <v>-1.3746757439999999</v>
-      </c>
-      <c r="F21">
-        <v>3.134815E-3</v>
-      </c>
-      <c r="G21">
-        <v>3.2451680000000001E-3</v>
-      </c>
-      <c r="H21">
-        <v>-1.3760511200000001</v>
-      </c>
-      <c r="I21">
-        <v>-1.0100350000000001E-3</v>
-      </c>
-      <c r="J21">
-        <v>5.3034349999999996E-3</v>
-      </c>
-      <c r="K21">
-        <v>-1.3727690930000001</v>
-      </c>
-      <c r="L21">
-        <v>1.65332E-3</v>
-      </c>
-      <c r="M21" s="8">
-        <v>4.6736000000000299E-5</v>
-      </c>
-      <c r="N21">
-        <v>4.7145999999999901E-4</v>
-      </c>
-      <c r="O21">
-        <v>2.1494722439891998</v>
-      </c>
-      <c r="Q21" s="19">
-        <f t="shared" si="0"/>
-        <v>-4.1632699999999993E-3</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="1"/>
-        <v>-1.3744986523333331</v>
-      </c>
-      <c r="S21" s="20">
-        <f t="shared" si="2"/>
-        <v>-5.7981700000000001E-3</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="3"/>
-        <v>2.7046144999999997E-2</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="4"/>
-        <v>5.2962933333322582E-4</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="5"/>
-        <v>2.3675470000000002E-3</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="6"/>
-        <v>2.7154737070886191E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>515</v>
-      </c>
-      <c r="B22" t="s">
-        <v>516</v>
-      </c>
-      <c r="C22" t="s">
-        <v>517</v>
-      </c>
-      <c r="D22">
-        <v>4.7696939999999997E-3</v>
-      </c>
-      <c r="E22">
-        <v>-1.3750864469999999</v>
-      </c>
-      <c r="F22">
-        <v>-7.7837189999999997E-3</v>
-      </c>
-      <c r="G22">
-        <v>1.6093762000000001E-2</v>
-      </c>
-      <c r="H22">
-        <v>-1.373808978</v>
-      </c>
-      <c r="I22">
-        <v>5.4458400000000004E-3</v>
-      </c>
-      <c r="J22">
-        <v>2.0692520999999998E-2</v>
-      </c>
-      <c r="K22">
-        <v>-1.37275871</v>
-      </c>
-      <c r="L22">
-        <v>-2.713703E-3</v>
-      </c>
-      <c r="M22">
-        <v>1.70935000000004E-4</v>
-      </c>
-      <c r="N22">
-        <v>3.7582400000000003E-4</v>
-      </c>
-      <c r="O22">
-        <v>2.27208615979238</v>
-      </c>
-      <c r="Q22" s="19">
-        <f t="shared" si="0"/>
-        <v>-9.3684529999999971E-3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="1"/>
-        <v>-1.3738847116666666</v>
-      </c>
-      <c r="S22" s="20">
-        <f t="shared" si="2"/>
-        <v>1.5943262E-2</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="3"/>
-        <v>3.2251327999999996E-2</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
-        <v>8.431133333330898E-5</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="5"/>
-        <v>1.9373885E-2</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="6"/>
-        <v>3.7623166881028736E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>518</v>
-      </c>
-      <c r="B23" t="s">
-        <v>519</v>
-      </c>
-      <c r="C23" t="s">
-        <v>520</v>
-      </c>
-      <c r="D23">
-        <v>4.2687059999999997E-3</v>
-      </c>
-      <c r="E23">
-        <v>-1.3739287520000001</v>
-      </c>
-      <c r="F23">
-        <v>4.0160810000000003E-3</v>
-      </c>
-      <c r="G23">
-        <v>-1.8986320000000001E-2</v>
-      </c>
-      <c r="H23">
-        <v>-1.3724908840000001</v>
-      </c>
-      <c r="I23">
-        <v>-8.2446199999999998E-4</v>
-      </c>
-      <c r="J23">
-        <v>-1.4618882999999999E-2</v>
-      </c>
-      <c r="K23">
-        <v>-1.3756894340000001</v>
-      </c>
-      <c r="L23">
-        <v>3.6785479999999998E-3</v>
-      </c>
-      <c r="M23" s="8">
-        <v>-9.8731000000001207E-5</v>
-      </c>
-      <c r="N23">
-        <v>-4.8692899999999901E-4</v>
-      </c>
-      <c r="O23">
-        <v>2.3498557082723099</v>
-      </c>
-      <c r="Q23" s="19">
-        <f t="shared" si="0"/>
-        <v>-8.6361430000000024E-3</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="1"/>
-        <v>-1.3740363566666669</v>
-      </c>
-      <c r="S23" s="20">
-        <f t="shared" si="2"/>
-        <v>-8.5190909999999995E-3</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="3"/>
-        <v>3.1519017999999996E-2</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="4"/>
-        <v>6.7333666667002134E-5</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="5"/>
-        <v>5.0884679999999996E-3</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="6"/>
-        <v>3.1927191171382659E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>521</v>
-      </c>
-      <c r="B24" t="s">
-        <v>522</v>
-      </c>
-      <c r="C24" t="s">
-        <v>523</v>
-      </c>
-      <c r="D24">
-        <v>-4.714612E-3</v>
-      </c>
-      <c r="E24">
-        <v>-1.3752566070000001</v>
-      </c>
-      <c r="F24">
-        <v>-2.0808860000000001E-3</v>
-      </c>
-      <c r="G24">
-        <v>1.6544209000000001E-2</v>
-      </c>
-      <c r="H24">
-        <v>-1.37478031</v>
-      </c>
-      <c r="I24">
-        <v>-6.2538419999999999E-3</v>
-      </c>
-      <c r="J24">
-        <v>1.1533991E-2</v>
-      </c>
-      <c r="K24">
-        <v>-1.3732122010000001</v>
-      </c>
-      <c r="L24">
-        <v>-8.0906199999999998E-3</v>
-      </c>
-      <c r="M24">
-        <v>2.9560600000000002E-4</v>
-      </c>
-      <c r="N24">
-        <v>-2.4410799999999901E-4</v>
-      </c>
-      <c r="O24">
-        <v>2.8604906733216202</v>
-      </c>
-      <c r="Q24" s="19">
-        <f t="shared" si="0"/>
-        <v>9.7248300000000003E-3</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>-1.3744163726666667</v>
-      </c>
-      <c r="S24" s="20">
-        <f t="shared" si="2"/>
-        <v>3.9176639999999995E-3</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="3"/>
-        <v>1.3158044999999997E-2</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="4"/>
-        <v>4.4734966666681864E-4</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="5"/>
-        <v>7.3482869999999994E-3</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="6"/>
-        <v>1.5077519417353134E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B25" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" t="s">
-        <v>526</v>
-      </c>
-      <c r="D25">
-        <v>-2.4741749999999999E-3</v>
-      </c>
-      <c r="E25">
-        <v>-1.373717812</v>
-      </c>
-      <c r="F25">
-        <v>4.3710069999999997E-3</v>
-      </c>
-      <c r="G25">
-        <v>6.558159E-3</v>
-      </c>
-      <c r="H25">
-        <v>-1.3740881519999999</v>
-      </c>
-      <c r="I25">
-        <v>-4.9025370000000002E-3</v>
-      </c>
-      <c r="J25">
-        <v>3.8664599999999999E-3</v>
-      </c>
-      <c r="K25">
-        <v>-1.3742411859999999</v>
-      </c>
-      <c r="L25">
-        <v>-1.330826E-3</v>
-      </c>
-      <c r="M25">
-        <v>2.17524E-4</v>
-      </c>
-      <c r="N25">
-        <v>7.9929599999999904E-4</v>
-      </c>
-      <c r="O25">
-        <v>4.0697441146096596</v>
-      </c>
-      <c r="Q25" s="19">
-        <f t="shared" si="0"/>
-        <v>5.1658739999999991E-3</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="1"/>
-        <v>-1.3740157166666667</v>
-      </c>
-      <c r="S25" s="20">
-        <f t="shared" si="2"/>
-        <v>-7.9427179999999997E-3</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="3"/>
-        <v>1.7717000999999996E-2</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="4"/>
-        <v>4.6693666666763889E-5</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="5"/>
-        <v>4.5120949999999998E-3</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="6"/>
-        <v>1.828259571345198E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B26" t="s">
-        <v>528</v>
-      </c>
-      <c r="C26" t="s">
-        <v>529</v>
-      </c>
-      <c r="D26">
-        <v>-7.713747E-3</v>
-      </c>
-      <c r="E26">
-        <v>-1.3728092380000001</v>
-      </c>
-      <c r="F26">
-        <v>6.0746430000000002E-3</v>
-      </c>
-      <c r="G26">
-        <v>-1.4621014999999999E-2</v>
-      </c>
-      <c r="H26">
-        <v>-1.3748293979999999</v>
-      </c>
-      <c r="I26">
-        <v>-7.9445760000000001E-3</v>
-      </c>
-      <c r="J26">
-        <v>-2.219119E-2</v>
-      </c>
-      <c r="K26">
-        <v>-1.3735437180000001</v>
-      </c>
-      <c r="L26">
-        <v>-9.5620799999999995E-4</v>
-      </c>
-      <c r="M26">
-        <v>-1.4357200000000099E-4</v>
-      </c>
-      <c r="N26">
-        <v>-9.1372499999999902E-4</v>
-      </c>
-      <c r="O26">
-        <v>4.2833282675064703</v>
-      </c>
-      <c r="Q26" s="19">
-        <f t="shared" si="0"/>
-        <v>1.5283922E-2</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="1"/>
-        <v>-1.3737274513333333</v>
-      </c>
-      <c r="S26" s="20">
-        <f t="shared" si="2"/>
-        <v>-1.3063010999999999E-2</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="3"/>
-        <v>7.5989529999999968E-3</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
-        <v>2.4157166666660679E-4</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="5"/>
-        <v>9.6323879999999987E-3</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="6"/>
-        <v>1.2271321939745897E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>530</v>
-      </c>
-      <c r="B27" t="s">
-        <v>531</v>
-      </c>
-      <c r="C27" t="s">
-        <v>532</v>
-      </c>
-      <c r="D27">
-        <v>-4.251721E-3</v>
-      </c>
-      <c r="E27">
-        <v>-1.3746481800000001</v>
-      </c>
-      <c r="F27">
-        <v>5.2296640000000002E-3</v>
-      </c>
-      <c r="G27">
-        <v>2.0348523E-2</v>
-      </c>
-      <c r="H27">
-        <v>-1.373585981</v>
-      </c>
-      <c r="I27">
-        <v>-5.5209059999999999E-3</v>
-      </c>
-      <c r="J27">
-        <v>1.6646873999999999E-2</v>
-      </c>
-      <c r="K27">
-        <v>-1.3738562379999999</v>
-      </c>
-      <c r="L27">
-        <v>-2.9429100000000002E-4</v>
-      </c>
-      <c r="M27">
-        <v>-5.5007199999999802E-4</v>
-      </c>
-      <c r="N27" s="8">
-        <v>3.0490000000002998E-6</v>
-      </c>
-      <c r="O27">
-        <v>4.9200124331895596</v>
-      </c>
-      <c r="Q27" s="19">
-        <f t="shared" si="0"/>
-        <v>7.9533700000000013E-3</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="1"/>
-        <v>-1.374030133</v>
-      </c>
-      <c r="S27" s="20">
-        <f t="shared" si="2"/>
-        <v>-1.0456279000000001E-2</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="3"/>
-        <v>1.4929504999999996E-2</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>6.1110000000086373E-5</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="5"/>
-        <v>7.0256560000000008E-3</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="6"/>
-        <v>1.6500112005906533E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>533</v>
-      </c>
-      <c r="B28" t="s">
-        <v>534</v>
-      </c>
-      <c r="C28" t="s">
-        <v>535</v>
-      </c>
-      <c r="D28">
-        <v>-3.3671410000000001E-3</v>
-      </c>
-      <c r="E28">
-        <v>-1.3734629789999999</v>
-      </c>
-      <c r="F28">
-        <v>-2.8100270000000001E-3</v>
-      </c>
-      <c r="G28">
-        <v>-4.1356270000000002E-3</v>
-      </c>
-      <c r="H28">
-        <v>-1.373675574</v>
-      </c>
-      <c r="I28">
-        <v>6.0913099999999995E-4</v>
-      </c>
-      <c r="J28">
-        <v>-7.5137529999999998E-3</v>
-      </c>
-      <c r="K28">
-        <v>-1.373720667</v>
-      </c>
-      <c r="L28">
-        <v>-1.0941900000000001E-3</v>
-      </c>
-      <c r="M28" s="8">
-        <v>1.0984999999999801E-5</v>
-      </c>
-      <c r="N28">
-        <v>-1.1067059999999901E-3</v>
-      </c>
-      <c r="O28">
-        <v>4.9503148411712097</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="0"/>
-        <v>6.7452669999999992E-3</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
-        <v>-1.3736197399999999</v>
-      </c>
-      <c r="S28" s="20">
-        <f t="shared" si="2"/>
-        <v>4.5133480000000004E-3</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="3"/>
-        <v>1.6137607999999998E-2</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="4"/>
-        <v>3.4928300000003354E-4</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="5"/>
-        <v>7.9439710000000011E-3</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="6"/>
-        <v>1.7990304772976858E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>536</v>
-      </c>
-      <c r="B29" t="s">
-        <v>537</v>
-      </c>
-      <c r="C29" t="s">
-        <v>538</v>
-      </c>
-      <c r="D29">
-        <v>-1.775722E-3</v>
-      </c>
-      <c r="E29">
-        <v>-1.374039413</v>
-      </c>
-      <c r="F29">
-        <v>2.3375309999999999E-3</v>
-      </c>
-      <c r="G29">
-        <v>-1.4462291E-2</v>
-      </c>
-      <c r="H29">
-        <v>-1.374966159</v>
-      </c>
-      <c r="I29">
-        <v>-4.2775909999999999E-3</v>
-      </c>
-      <c r="J29">
-        <v>-1.6078467999999999E-2</v>
-      </c>
-      <c r="K29">
-        <v>-1.372943762</v>
-      </c>
-      <c r="L29">
-        <v>-3.248426E-3</v>
-      </c>
-      <c r="M29">
-        <v>-1.59545E-4</v>
-      </c>
-      <c r="N29">
-        <v>1.308366E-3</v>
-      </c>
-      <c r="O29">
-        <v>6.0226904586837202</v>
-      </c>
-      <c r="Q29" s="19">
-        <f t="shared" si="0"/>
-        <v>3.3918989999999986E-3</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
-        <v>-1.3739831113333334</v>
-      </c>
-      <c r="S29" s="20">
-        <f t="shared" si="2"/>
-        <v>-3.3666959999999993E-3</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="3"/>
-        <v>1.9490976E-2</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="4"/>
-        <v>1.4088333333495129E-5</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="5"/>
-        <v>6.3927000000000515E-5</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="6"/>
-        <v>1.9491085926008359E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>539</v>
-      </c>
-      <c r="B30" t="s">
-        <v>540</v>
-      </c>
-      <c r="C30" t="s">
-        <v>541</v>
-      </c>
-      <c r="D30">
-        <v>-7.1232500000000002E-3</v>
-      </c>
-      <c r="E30">
-        <v>-1.37361965</v>
-      </c>
-      <c r="F30">
-        <v>-4.9888299999999997E-3</v>
-      </c>
-      <c r="G30">
-        <v>-1.0167776999999999E-2</v>
-      </c>
-      <c r="H30">
-        <v>-1.3733065849999999</v>
-      </c>
-      <c r="I30">
-        <v>8.7202789999999992E-3</v>
-      </c>
-      <c r="J30">
-        <v>-1.6401756999999999E-2</v>
-      </c>
-      <c r="K30">
-        <v>-1.3739290669999999</v>
-      </c>
-      <c r="L30">
-        <v>4.3332800000000001E-3</v>
-      </c>
-      <c r="M30">
-        <v>-8.8927000000000103E-4</v>
-      </c>
-      <c r="N30">
-        <v>-6.0183100000000005E-4</v>
-      </c>
-      <c r="O30">
-        <v>8.3969102462286695</v>
-      </c>
-      <c r="Q30" s="19">
-        <f t="shared" si="0"/>
-        <v>1.3357230000000001E-2</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="1"/>
-        <v>-1.3736184339999999</v>
-      </c>
-      <c r="S30" s="20">
-        <f t="shared" si="2"/>
-        <v>9.3758289999999987E-3</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="3"/>
-        <v>9.5256449999999958E-3</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="4"/>
-        <v>3.5058899999995674E-4</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="5"/>
-        <v>1.2806451999999999E-2</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="6"/>
-        <v>1.5964524363138725E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>542</v>
-      </c>
-      <c r="B31" t="s">
-        <v>543</v>
-      </c>
-      <c r="C31" t="s">
-        <v>544</v>
-      </c>
-      <c r="D31">
-        <v>5.196399E-3</v>
-      </c>
-      <c r="E31">
-        <v>-1.3735271769999999</v>
-      </c>
-      <c r="F31">
-        <v>9.7956400000000004E-4</v>
-      </c>
-      <c r="G31">
-        <v>1.6695201999999999E-2</v>
-      </c>
-      <c r="H31">
-        <v>-1.3749088490000001</v>
-      </c>
-      <c r="I31">
-        <v>-6.4974339999999998E-3</v>
-      </c>
-      <c r="J31">
-        <v>2.0818888000000001E-2</v>
-      </c>
-      <c r="K31">
-        <v>-1.374864307</v>
-      </c>
-      <c r="L31">
-        <v>-7.5893050000000002E-3</v>
-      </c>
-      <c r="M31">
-        <v>1.0727129999999899E-3</v>
-      </c>
-      <c r="N31">
-        <v>2.0714349999999999E-3</v>
-      </c>
-      <c r="O31">
-        <v>13.3369379399478</v>
-      </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="0"/>
-        <v>-9.3200850000000023E-3</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="1"/>
-        <v>-1.3744334443333335</v>
-      </c>
-      <c r="S31" s="20">
-        <f t="shared" si="2"/>
-        <v>1.1230699999999986E-4</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="3"/>
-        <v>3.2202960000000003E-2</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="4"/>
-        <v>4.644213333335756E-4</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="5"/>
-        <v>3.5429299999999997E-3</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="6"/>
-        <v>3.2400596798845473E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32" t="s">
-        <v>546</v>
-      </c>
-      <c r="C32" t="s">
-        <v>547</v>
-      </c>
-      <c r="D32">
-        <v>-1.3201875E-2</v>
-      </c>
-      <c r="E32">
-        <v>-1.373768691</v>
-      </c>
-      <c r="F32">
-        <v>1.5939961999999998E-2</v>
-      </c>
-      <c r="G32">
-        <v>1.7257327999999999E-2</v>
-      </c>
-      <c r="H32">
-        <v>-1.3736921719999999</v>
-      </c>
-      <c r="I32">
-        <v>-1.445151E-3</v>
-      </c>
-      <c r="J32">
-        <v>1.3663738999999999E-2</v>
-      </c>
-      <c r="K32">
-        <v>-1.3753774940000001</v>
-      </c>
-      <c r="L32">
-        <v>-4.94642E-4</v>
-      </c>
-      <c r="M32">
-        <v>-9.6082860000000006E-3</v>
-      </c>
-      <c r="N32">
-        <v>1.4989452999999899E-2</v>
-      </c>
-      <c r="O32">
-        <v>108.991774063035</v>
-      </c>
-      <c r="Q32" s="19">
-        <f t="shared" si="0"/>
-        <v>1.6795463999999996E-2</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
-        <v>-1.3742794523333333</v>
-      </c>
-      <c r="S32" s="20">
-        <f t="shared" si="2"/>
-        <v>-1.6890470999999997E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="3"/>
-        <v>6.0874110000000009E-3</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="4"/>
-        <v>3.1042933333336187E-4</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="5"/>
-        <v>1.3459847999999996E-2</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="6"/>
-        <v>1.4775670788056246E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>548</v>
-      </c>
-      <c r="B33" t="s">
-        <v>549</v>
-      </c>
-      <c r="C33" t="s">
-        <v>550</v>
-      </c>
-      <c r="D33">
-        <v>1.4139456E-2</v>
-      </c>
-      <c r="E33">
-        <v>-1.3735233659999999</v>
-      </c>
-      <c r="F33">
-        <v>-1.6062285999999999E-2</v>
-      </c>
-      <c r="G33">
-        <v>1.7717427000000001E-2</v>
-      </c>
-      <c r="H33">
-        <v>-1.374603018</v>
-      </c>
-      <c r="I33">
-        <v>9.4515490000000001E-3</v>
-      </c>
-      <c r="J33">
-        <v>1.6459312E-2</v>
-      </c>
-      <c r="K33">
-        <v>-1.3726354679999999</v>
-      </c>
-      <c r="L33">
-        <v>1.1769630000000001E-3</v>
-      </c>
-      <c r="M33">
-        <v>1.5397571000000001E-2</v>
-      </c>
-      <c r="N33">
-        <v>-7.7876999999999903E-3</v>
-      </c>
-      <c r="O33">
-        <v>142.05555547673299</v>
-      </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="0"/>
-        <v>-1.2881340999999999E-2</v>
-      </c>
-      <c r="R33">
-        <f>(E33+H33+K33)/3</f>
-        <v>-1.3735872839999999</v>
-      </c>
-      <c r="S33" s="20">
-        <f t="shared" si="2"/>
-        <v>2.4336871999999999E-2</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="3"/>
-        <v>3.5764215999999995E-2</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="4"/>
-        <v>3.8173900000004757E-4</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="5"/>
-        <v>2.7767495E-2</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="6"/>
-        <v>4.5279781904662503E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>